--- a/Proyecto Final/Info/Info.xlsx
+++ b/Proyecto Final/Info/Info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathy\Documents\Kathy\Estadistica\Proyecto Final\Info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DERS\Documents\GitHub\ESTADISTICA-PROYECTO\Proyecto Final\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50291E5A-6676-4388-B6E6-7F3C3A058EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C22CF22-BBA0-4BEF-B81F-5E3A172F24E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,9 +143,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -203,6 +204,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8E630032-129E-4EAF-820A-9C2601A389DF}" name="Table13" displayName="Table13" ref="A1:L51" totalsRowShown="0">
   <autoFilter ref="A1:L51" xr:uid="{8E630032-129E-4EAF-820A-9C2601A389DF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L51">
+    <sortCondition ref="I1:I51"/>
+  </sortState>
   <tableColumns count="12">
     <tableColumn id="7" xr3:uid="{A730A8F9-39E0-4112-93A9-A21230DBB8BF}" name="Edad" dataDxfId="11"/>
     <tableColumn id="8" xr3:uid="{19999E8F-C83E-4433-882D-1D2610E134D7}" name="Foráneo" dataDxfId="10"/>
@@ -520,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +573,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -578,31 +582,31 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F2" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="1">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="I2" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K2" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -616,28 +620,28 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="H3" s="1">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="I3" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1">
         <v>7</v>
       </c>
       <c r="K3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L3" t="s">
         <v>6</v>
@@ -645,7 +649,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -654,28 +658,28 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="H4" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="I4" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L4" t="s">
         <v>6</v>
@@ -683,7 +687,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -695,28 +699,28 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="H5" s="1">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="K5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -733,28 +737,28 @@
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1">
         <v>10</v>
       </c>
       <c r="G6" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H6" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="I6" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1">
         <v>8</v>
       </c>
       <c r="K6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -768,28 +772,28 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="H7" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10</v>
+        <v>600</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9</v>
       </c>
       <c r="J7" s="1">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="K7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7" t="s">
         <v>4</v>
@@ -797,7 +801,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -806,28 +810,28 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="H8" s="1">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="I8" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="K8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" t="s">
         <v>4</v>
@@ -844,74 +848,74 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F9" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="H9" s="1">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I9" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="K9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1">
         <v>95</v>
       </c>
       <c r="F10" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="H10" s="1">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="I10" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K10" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -920,28 +924,28 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F11" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="H11" s="1">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="I11" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L11" t="s">
         <v>4</v>
@@ -949,37 +953,37 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H12" s="1">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="I12" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1">
         <v>7</v>
       </c>
       <c r="K12" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L12" t="s">
         <v>6</v>
@@ -987,45 +991,45 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F13" s="1">
         <v>10</v>
       </c>
       <c r="G13" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H13" s="1">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="K13" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -1037,19 +1041,19 @@
         <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G14" s="1">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="H14" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1">
         <v>8</v>
@@ -1063,45 +1067,45 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H15" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K15" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -1110,36 +1114,36 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H16" s="1">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K16" s="1">
         <v>5</v>
       </c>
       <c r="L16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -1148,77 +1152,77 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G17" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="1">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="I17" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="K17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F18" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G18" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="I18" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5</v>
+      </c>
+      <c r="L18" t="s">
         <v>9</v>
-      </c>
-      <c r="K18" s="1">
-        <v>8</v>
-      </c>
-      <c r="L18" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1227,28 +1231,28 @@
         <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F19" s="1">
         <v>15</v>
       </c>
       <c r="G19" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H19" s="1">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="I19" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K19" s="1">
         <v>5</v>
       </c>
       <c r="L19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1265,28 +1269,28 @@
         <v>5</v>
       </c>
       <c r="E20" s="1">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1">
         <v>15</v>
       </c>
       <c r="G20" s="1">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1">
         <v>1000</v>
       </c>
       <c r="I20" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J20" s="1">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1303,33 +1307,33 @@
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G21" s="1">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="H21" s="1">
         <v>900</v>
       </c>
       <c r="I21" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1">
-        <v>8.6999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="K21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L21" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -1341,25 +1345,25 @@
         <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F22" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G22" s="1">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="H22" s="1">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="I22" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L22" t="s">
         <v>4</v>
@@ -1367,40 +1371,40 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1">
         <v>15</v>
-      </c>
-      <c r="F23" s="1">
-        <v>30</v>
       </c>
       <c r="G23" s="1">
         <v>300</v>
       </c>
       <c r="H23" s="1">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I23" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J23" s="1">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K23" s="1">
         <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1417,28 +1421,28 @@
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G24" s="1">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="H24" s="1">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="I24" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1">
-        <v>8</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1455,71 +1459,71 @@
         <v>8</v>
       </c>
       <c r="E25" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F25" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G25" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="H25" s="1">
         <v>500</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K25" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F26" s="1">
         <v>20</v>
       </c>
       <c r="G26" s="1">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="H26" s="1">
-        <v>120</v>
+        <v>650</v>
       </c>
       <c r="I26" s="1">
         <v>7</v>
       </c>
       <c r="J26" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K26" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -1528,36 +1532,36 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E27" s="1">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F27" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G27" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H27" s="1">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="I27" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J27" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K27" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -1569,28 +1573,28 @@
         <v>3</v>
       </c>
       <c r="E28" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F28" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H28" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="I28" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J28" s="1">
         <v>8</v>
       </c>
       <c r="K28" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L28" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1601,77 +1605,77 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="F29" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G29" s="1">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="H29" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="I29" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J29" s="1">
         <v>9</v>
       </c>
       <c r="K29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E30" s="1">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F30" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G30" s="1">
         <v>400</v>
       </c>
       <c r="H30" s="1">
-        <v>2000</v>
+        <v>560</v>
       </c>
       <c r="I30" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J30" s="1">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="K30" s="1">
         <v>5</v>
       </c>
       <c r="L30" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -1683,25 +1687,25 @@
         <v>3</v>
       </c>
       <c r="E31" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F31" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G31" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H31" s="1">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="I31" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J31" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L31" t="s">
         <v>4</v>
@@ -1709,7 +1713,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -1721,16 +1725,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F32" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G32" s="1">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="H32" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
@@ -1739,7 +1743,7 @@
         <v>6.5</v>
       </c>
       <c r="K32" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L32" t="s">
         <v>6</v>
@@ -1747,40 +1751,40 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="1">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="F33" s="1">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G33" s="1">
-        <v>870</v>
+        <v>20</v>
       </c>
       <c r="H33" s="1">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="I33" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J33" s="1">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="K33" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1791,80 +1795,80 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E34" s="1">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="F34" s="1">
         <v>10</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H34" s="1">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="I34" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J34" s="1">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="K34" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="F35" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G35" s="1">
+        <v>200</v>
+      </c>
+      <c r="H35" s="1">
         <v>400</v>
       </c>
-      <c r="H35" s="1">
-        <v>560</v>
-      </c>
       <c r="I35" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J35" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K35" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1879,16 +1883,16 @@
         <v>20</v>
       </c>
       <c r="G36" s="1">
-        <v>700</v>
+        <v>90</v>
       </c>
       <c r="H36" s="1">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="I36" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J36" s="1">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K36" s="1">
         <v>5</v>
@@ -1905,39 +1909,39 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F37" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G37" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I37" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J37" s="1">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="K37" s="1">
         <v>6</v>
       </c>
       <c r="L37" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -1946,36 +1950,36 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E38" s="1">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="F38" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G38" s="1">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="H38" s="1">
-        <v>650</v>
+        <v>130</v>
       </c>
       <c r="I38" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J38" s="1">
-        <v>6.5</v>
+        <v>7.28</v>
       </c>
       <c r="K38" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -1984,31 +1988,31 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F39" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G39" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I39" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J39" s="1">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="K39" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L39" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2022,36 +2026,36 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E40" s="1">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F40" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G40" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I40" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J40" s="1">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="K40" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L40" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -2060,28 +2064,28 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E41" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F41" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G41" s="1">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H41" s="1">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="I41" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J41" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K41" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L41" t="s">
         <v>6</v>
@@ -2089,7 +2093,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -2098,28 +2102,28 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F42" s="1">
+        <v>20</v>
+      </c>
+      <c r="G42" s="1">
         <v>40</v>
       </c>
-      <c r="G42" s="1">
-        <v>1000</v>
-      </c>
       <c r="H42" s="1">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I42" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J42" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K42" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L42" t="s">
         <v>6</v>
@@ -2127,7 +2131,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -2142,30 +2146,30 @@
         <v>65</v>
       </c>
       <c r="F43" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H43" s="1">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I43" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J43" s="1">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -2174,28 +2178,28 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F44" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G44" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H44" s="1">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="I44" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J44" s="1">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K44" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L44" t="s">
         <v>6</v>
@@ -2203,75 +2207,75 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F45" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G45" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H45" s="1">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="I45" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J45" s="1">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="K45" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L45" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>50</v>
+      </c>
+      <c r="F46" s="1">
+        <v>15</v>
+      </c>
+      <c r="G46" s="1">
+        <v>300</v>
+      </c>
+      <c r="H46" s="1">
+        <v>800</v>
+      </c>
+      <c r="I46" s="1">
+        <v>12</v>
+      </c>
+      <c r="J46" s="1">
         <v>7</v>
       </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="1">
-        <v>85</v>
-      </c>
-      <c r="F46" s="1">
-        <v>60</v>
-      </c>
-      <c r="G46" s="1">
-        <v>2500</v>
-      </c>
-      <c r="H46" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I46" s="1">
-        <v>16</v>
-      </c>
-      <c r="J46" s="1">
-        <v>6</v>
-      </c>
       <c r="K46" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L46" t="s">
         <v>6</v>
@@ -2279,37 +2283,37 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47" s="1">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F47" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G47" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="H47" s="1">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="I47" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J47" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K47" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L47" t="s">
         <v>11</v>
@@ -2317,7 +2321,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -2329,36 +2333,36 @@
         <v>5</v>
       </c>
       <c r="E48" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F48" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G48" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H48" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="I48" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J48" s="1">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K48" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L48" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -2367,28 +2371,28 @@
         <v>3</v>
       </c>
       <c r="E49" s="1">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G49" s="1">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="H49" s="1">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="I49" s="1">
         <v>15</v>
       </c>
       <c r="J49" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K49" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L49" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2399,69 +2403,69 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F50" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="H50" s="1">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="I50" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J50" s="1">
         <v>8</v>
       </c>
       <c r="K50" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L50" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E51" s="1">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F51" s="1">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G51" s="1">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="H51" s="1">
-        <v>130</v>
+        <v>3000</v>
       </c>
       <c r="I51" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J51" s="1">
-        <v>7.28</v>
+        <v>6</v>
       </c>
       <c r="K51" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L51" t="s">
         <v>6</v>

--- a/Proyecto Final/Info/Info.xlsx
+++ b/Proyecto Final/Info/Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DERS\Documents\GitHub\ESTADISTICA-PROYECTO\Proyecto Final\Info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathy\Documents\GitHub\ESTADISTICA-PROYECTO\Proyecto Final\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C22CF22-BBA0-4BEF-B81F-5E3A172F24E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183B3E47-D35A-4370-BCA7-9CFC20D0CD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="23">
   <si>
     <t>Edad</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Algo fácil</t>
-  </si>
-  <si>
-    <t>Excelente</t>
   </si>
   <si>
     <t>Laboral</t>
@@ -524,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,37 +535,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
       <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
         <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -664,7 +661,7 @@
         <v>90</v>
       </c>
       <c r="F4" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1">
         <v>1000</v>
@@ -786,7 +783,7 @@
       <c r="H7" s="1">
         <v>600</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>9</v>
       </c>
       <c r="J7" s="1">
@@ -865,8 +862,8 @@
       <c r="I9" s="1">
         <v>11</v>
       </c>
-      <c r="J9" s="1">
-        <v>9</v>
+      <c r="J9" s="2">
+        <v>8.4</v>
       </c>
       <c r="K9" s="1">
         <v>4</v>
@@ -1169,8 +1166,8 @@
       <c r="I17" s="1">
         <v>16</v>
       </c>
-      <c r="J17" s="1">
-        <v>6</v>
+      <c r="J17" s="2">
+        <v>6.4</v>
       </c>
       <c r="K17" s="1">
         <v>5</v>
@@ -1268,8 +1265,8 @@
       <c r="D20" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="1">
-        <v>20</v>
+      <c r="E20" s="2">
+        <v>40</v>
       </c>
       <c r="F20" s="1">
         <v>15</v>
@@ -1538,7 +1535,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="1">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G27" s="1">
         <v>400</v>
@@ -1646,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1">
         <v>35</v>
@@ -2005,8 +2002,8 @@
       <c r="I39" s="1">
         <v>9</v>
       </c>
-      <c r="J39" s="1">
-        <v>6</v>
+      <c r="J39" s="2">
+        <v>6.45</v>
       </c>
       <c r="K39" s="1">
         <v>4</v>
@@ -2294,11 +2291,11 @@
       <c r="D47" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="1">
-        <v>60</v>
+      <c r="E47" s="2">
+        <v>45</v>
       </c>
       <c r="F47" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G47" s="1">
         <v>150</v>
@@ -2309,8 +2306,8 @@
       <c r="I47" s="1">
         <v>12</v>
       </c>
-      <c r="J47" s="1">
-        <v>9</v>
+      <c r="J47" s="2">
+        <v>8.8000000000000007</v>
       </c>
       <c r="K47" s="1">
         <v>8</v>
@@ -2450,7 +2447,7 @@
         <v>85</v>
       </c>
       <c r="F51" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G51" s="1">
         <v>2500</v>
